--- a/game/Reporter/report_template.xlsx
+++ b/game/Reporter/report_template.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="G5" sqref="G5:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,8 +584,6 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -594,8 +592,6 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
@@ -604,8 +600,6 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
@@ -616,8 +610,6 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -646,8 +638,6 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
@@ -656,8 +646,6 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -668,8 +656,6 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
@@ -698,8 +684,6 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
@@ -708,8 +692,6 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
@@ -720,10 +702,8 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -743,27 +723,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -772,10 +748,8 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
@@ -795,27 +769,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
@@ -824,10 +794,8 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
@@ -847,15 +815,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/game/Reporter/report_template.xlsx
+++ b/game/Reporter/report_template.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
